--- a/SP6T-COTS-System-Build-BOM.xlsx
+++ b/SP6T-COTS-System-Build-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEMSduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC659BB4-98EC-4485-A916-56AFBD029E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC6EF3-C5C1-4B15-B8F0-61694D292E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>description</t>
   </si>
@@ -59,12 +59,6 @@
     <t xml:space="preserve">manfacturer </t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>hardware</t>
-  </si>
-  <si>
     <t>vendor part number</t>
   </si>
   <si>
@@ -74,15 +68,9 @@
     <t>McMaster Carr</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/91075A462/</t>
   </si>
   <si>
-    <t>bud box</t>
-  </si>
-  <si>
     <t>Male-Female Threaded Hex Standoff 18-8 Stainless Steel, 3/16" Hex, 7/32" Long, 4-40 to 4-40 Thread</t>
   </si>
   <si>
@@ -122,12 +110,6 @@
     <t>98685A540</t>
   </si>
   <si>
-    <t>wood board,3d print</t>
-  </si>
-  <si>
-    <t>bud box,3d print</t>
-  </si>
-  <si>
     <t>Brass Phillips Decorative Rounded Head Screws for Wood, Number 4 Size, 3/8" Long</t>
   </si>
   <si>
@@ -170,9 +152,6 @@
     <t>Brass Flared-Collar Knurled-Head Thumb Screws 10-32 Thread Size, 3/4" Long</t>
   </si>
   <si>
-    <t xml:space="preserve">wood board </t>
-  </si>
-  <si>
     <t>92421A645</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t xml:space="preserve">Brass threaded inserts #4-40 </t>
   </si>
   <si>
-    <t>3d print</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF18JT330R/1741683</t>
   </si>
   <si>
@@ -209,9 +185,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>electronics components</t>
-  </si>
-  <si>
     <t>AE10940-ND</t>
   </si>
   <si>
@@ -239,33 +212,6 @@
     <t>DB25 to Fischer Cable</t>
   </si>
   <si>
-    <t>arduino shield</t>
-  </si>
-  <si>
-    <t>control panel circuit board</t>
-  </si>
-  <si>
-    <t>DB25 relay board</t>
-  </si>
-  <si>
-    <t>off the shelf circuits</t>
-  </si>
-  <si>
-    <t>consumer products</t>
-  </si>
-  <si>
-    <t>wires</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>shield, relay board, microD</t>
-  </si>
-  <si>
-    <t>custom printed circuit board</t>
-  </si>
-  <si>
     <t>PCBWay</t>
   </si>
   <si>
@@ -336,9 +282,6 @@
   </si>
   <si>
     <t>https://www.amazon.com/Header-Lystaii-Pin-Connector-Electronic/dp/B06ZZN8L9S/</t>
-  </si>
-  <si>
-    <t>Bud Box</t>
   </si>
   <si>
     <t>Diecast aluminum enclosure, AN-1304-A from BUD Industries</t>
@@ -764,33 +707,29 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
-    <col min="4" max="4" width="58.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,27 +746,22 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>3.73</v>
@@ -836,28 +770,23 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <f>$E2*$F2</f>
+        <f t="shared" ref="G2:G14" si="0">$E2*$F2</f>
         <v>7.46</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>1.2</v>
@@ -866,28 +795,23 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f>$E3*$F3</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>0.05</v>
@@ -896,28 +820,23 @@
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f>$E4*$F4</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>1.7999999999999999E-2</v>
@@ -926,28 +845,23 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <f>$E5*$F5</f>
+        <f t="shared" si="0"/>
         <v>0.16199999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>14.9</v>
@@ -956,34 +870,29 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f>$E6*$F6</f>
+        <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>8.2000000000000003E-2</v>
@@ -992,28 +901,23 @@
         <v>8</v>
       </c>
       <c r="G7" s="2">
-        <f>$E7*$F7</f>
+        <f t="shared" si="0"/>
         <v>0.65600000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>1.62</v>
@@ -1022,28 +926,23 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <f>$E8*$F8</f>
+        <f t="shared" si="0"/>
         <v>6.48</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>7.2999999999999995E-2</v>
@@ -1052,34 +951,29 @@
         <v>7</v>
       </c>
       <c r="G9" s="2">
-        <f>$E9*$F9</f>
+        <f t="shared" si="0"/>
         <v>0.51100000000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2">
         <v>0.1</v>
@@ -1088,25 +982,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <f>$E10*$F10</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -1115,25 +1004,20 @@
         <v>9</v>
       </c>
       <c r="G11" s="2">
-        <f>$E11*$F11</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>0.1</v>
@@ -1142,25 +1026,20 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f>$E12*$F12</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>0.51</v>
@@ -1169,25 +1048,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f>$E13*$F13</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>0.28999999999999998</v>
@@ -1196,31 +1070,26 @@
         <v>9</v>
       </c>
       <c r="G14" s="2">
-        <f>$E14*$F14</f>
+        <f t="shared" si="0"/>
         <v>2.61</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>1.17</v>
@@ -1233,42 +1102,37 @@
         <v>1.17</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>1.25</v>
@@ -1281,30 +1145,25 @@
         <v>11.25</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>1559</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K19">
         <v>1559</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>16.899999999999999</v>
@@ -1317,41 +1176,36 @@
         <v>16.899999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2">
         <v>1.64</v>
@@ -1360,34 +1214,29 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <f>$E23*$F23</f>
+        <f t="shared" ref="G23:G30" si="1">$E23*$F23</f>
         <v>1.64</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>0.59899999999999998</v>
@@ -1396,25 +1245,20 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f>$E24*$F24</f>
+        <f t="shared" si="1"/>
         <v>0.59899999999999998</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2">
         <v>0.79</v>
@@ -1423,25 +1267,20 @@
         <v>9</v>
       </c>
       <c r="G25" s="2">
-        <f>$E25*$F25</f>
+        <f t="shared" si="1"/>
         <v>7.11</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2">
         <v>0.99</v>
@@ -1450,25 +1289,20 @@
         <v>2</v>
       </c>
       <c r="G26" s="2">
-        <f>$E26*$F26</f>
+        <f t="shared" si="1"/>
         <v>1.98</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2">
         <v>0.09</v>
@@ -1477,23 +1311,18 @@
         <v>3</v>
       </c>
       <c r="G27" s="2">
-        <f>$E27*$F27</f>
+        <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="E28" s="2">
         <v>5.98</v>
       </c>
@@ -1501,23 +1330,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <f>$E28*$F28</f>
+        <f t="shared" si="1"/>
         <v>5.98</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="E29" s="2">
         <v>1.82</v>
       </c>
@@ -1525,23 +1349,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <f>$E29*$F29</f>
+        <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="E30" s="2">
         <v>1.82</v>
       </c>
@@ -1549,126 +1368,101 @@
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <f>$E30*$F30</f>
+        <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G44" s="6">
         <f>SUM(G2:G43)</f>
         <v>87.078000000000003</v>

--- a/SP6T-COTS-System-Build-BOM.xlsx
+++ b/SP6T-COTS-System-Build-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEMSduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC6EF3-C5C1-4B15-B8F0-61694D292E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF586C-DB6B-4B59-8FB0-131B7DE46350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>description</t>
   </si>
@@ -110,9 +110,6 @@
     <t>98685A540</t>
   </si>
   <si>
-    <t>Brass Phillips Decorative Rounded Head Screws for Wood, Number 4 Size, 3/8" Long</t>
-  </si>
-  <si>
     <t>100k axial resistor</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>1000 uF electrolytic capacitor</t>
   </si>
   <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>DB25 board mount connector</t>
-  </si>
-  <si>
     <t>0.1" headers</t>
   </si>
   <si>
@@ -176,33 +167,21 @@
     <t>https://www.digikey.com/en/products/detail/e-switch/TL59NF160Q/390533</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/assmann-wsw-components/A-DF-25-PP-Z/1241794</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/rubycon/16PK1000MEFC10X12-5/3563556</t>
   </si>
   <si>
     <t>Digikey</t>
   </si>
   <si>
-    <t>AE10940-ND</t>
-  </si>
-  <si>
     <t>Assmann WSW Components</t>
   </si>
   <si>
-    <t>A-DF 25 PP/Z</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
     <t>arduino-bracket</t>
   </si>
   <si>
-    <t>front-panel-center-bracket</t>
-  </si>
-  <si>
     <t>front-panel-edge-bracket</t>
   </si>
   <si>
@@ -239,15 +218,6 @@
     <t>AK672/2-2</t>
   </si>
   <si>
-    <t>https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL</t>
-  </si>
-  <si>
-    <t>https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-center-bracket.STL</t>
-  </si>
-  <si>
-    <t>https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0B8Z23NWX/</t>
   </si>
   <si>
@@ -309,6 +279,87 @@
   </si>
   <si>
     <t>6button-6neopixel, 152.4 mm x 88.9 mm (6"x3.5")</t>
+  </si>
+  <si>
+    <t>cryoelec-bracket</t>
+  </si>
+  <si>
+    <t>#6 wood screws</t>
+  </si>
+  <si>
+    <t>0-80 Brass Thread Inserts(E-Z LOK 240-000-BR)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Z-LOK-Threaded-Insert-Plastic/dp/B08QJJDCW1/</t>
+  </si>
+  <si>
+    <t>E-Z LOK</t>
+  </si>
+  <si>
+    <t>240-000-BR</t>
+  </si>
+  <si>
+    <t>B08QJJDCW1</t>
+  </si>
+  <si>
+    <t>RNF14FTD100K</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>Rubycon</t>
+  </si>
+  <si>
+    <t>RNF14FTD100KCT-ND</t>
+  </si>
+  <si>
+    <t>10.0KXBK-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAGEO </t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-10K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/norcomp-inc/171-025-103L001/858135</t>
+  </si>
+  <si>
+    <t>DB25 panel mount solder cup</t>
+  </si>
+  <si>
+    <t>225ME-ND</t>
+  </si>
+  <si>
+    <t>NorComp Inc.</t>
+  </si>
+  <si>
+    <t>171-025-103L001</t>
+  </si>
+  <si>
+    <t>E Switch</t>
+  </si>
+  <si>
+    <t>CF18JT330RCT-ND</t>
+  </si>
+  <si>
+    <t>CF18JT330R</t>
+  </si>
+  <si>
+    <t>1189-1719-ND</t>
+  </si>
+  <si>
+    <t>16PK1000MEFC10X12.5</t>
+  </si>
+  <si>
+    <t>EG2532TB-ND</t>
+  </si>
+  <si>
+    <t>TL59NF160Q</t>
+  </si>
+  <si>
+    <t>Momentary buttons</t>
   </si>
 </sst>
 </file>
@@ -380,14 +431,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -704,800 +755,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9227DDD-8365-4864-A5FB-3571E7A7DE36}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="67.453125" customWidth="1"/>
+    <col min="2" max="2" width="58.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G14" si="0">$E2*$F2</f>
+        <f t="shared" ref="E2:E6" si="0">$C2*$D2</f>
         <v>7.46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
       <c r="E5" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.16199999999999998</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>83</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
       <c r="E6" s="2">
+        <f>$C6*$D6</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <f>$C7*$D7</f>
+        <v>6.48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2">
         <v>14.9</v>
       </c>
-      <c r="F6">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
+      <c r="E8" s="2">
+        <f>$C8*$D8</f>
         <v>14.9</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.51100000000000001</v>
+      <c r="C9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f>$C9*$D9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>$C10*$D10</f>
+        <v>0.45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
+        <f>$C11*$D11</f>
+        <v>0.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f>$C12*$D12</f>
+        <v>0.51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <f>$C13*$D13</f>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <f>$C14*$D14</f>
+        <v>2.16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <f>$C15*$D15</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <f>$C16*$D16</f>
+        <v>1.64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="F13">
+      <c r="C17" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <f>$C17*$D17</f>
+        <v>7.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1559</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F14">
+      <c r="E18" s="2">
+        <f>$C18*$D18</f>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="D16" s="1" t="s">
+      <c r="E19" s="2">
+        <f>$C19*$D19</f>
+        <v>7.11</v>
+      </c>
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <f>$E16*$F16</f>
-        <v>1.17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2">
-        <f>$E19*$F19</f>
-        <v>11.25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19">
-        <v>1559</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F20">
+        <f>$C20*$D20</f>
+        <v>1.98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <f>$C21*$D21</f>
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <f>$C22*$D22</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <f>$C23*$D23</f>
+        <v>1.88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
-        <f>$E20*$F20</f>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E24" s="2">
+        <f>$C24*$D24</f>
+        <v>5.98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f>$C25*$D25</f>
+        <v>1.82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f>$C26*$D26</f>
+        <v>1.82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="F23">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" ref="G23:G30" si="1">$E23*$F23</f>
-        <v>1.64</v>
-      </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>7.11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>1.98</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="E28" s="2">
-        <v>5.98</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>5.98</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="E29" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>1.82</v>
-      </c>
-      <c r="H29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="E30" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>1.82</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="D31" s="1" t="s">
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="6">
-        <f>SUM(G2:G43)</f>
-        <v>87.078000000000003</v>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E38" s="5">
+        <f>SUM(E2:E37)</f>
+        <v>85.383999999999986</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.mcmaster.com/93465A113/" xr:uid="{30614124-8274-416D-BF4B-C61FC2A88B31}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{BC51F43F-73C3-4542-B883-85C971BB0C5E}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6DDD143B-F9D0-4B29-A1DA-E8BD72E2D5ED}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{C280DF8C-0D7D-4B6B-A819-A72B4DF674AB}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{60FC37AB-5220-4795-822A-F429D74EB9F3}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{902A0660-9FAE-4FA1-959B-93D22B2DD4BA}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
-    <hyperlink ref="D31" r:id="rId17" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
-    <hyperlink ref="D32" r:id="rId18" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/HV-DCDC-bracket.STL" xr:uid="{D03C1B69-4D48-4795-9E93-BE0E22931B25}"/>
-    <hyperlink ref="D33" r:id="rId19" xr:uid="{549C9F63-3406-4568-9EB9-2E3F9A8F50D2}"/>
-    <hyperlink ref="D34" r:id="rId20" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
-    <hyperlink ref="D35" r:id="rId22" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
-    <hyperlink ref="D26" r:id="rId24" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
-    <hyperlink ref="D6" r:id="rId25" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.mcmaster.com/93465A113/" xr:uid="{30614124-8274-416D-BF4B-C61FC2A88B31}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BC51F43F-73C3-4542-B883-85C971BB0C5E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6DDD143B-F9D0-4B29-A1DA-E8BD72E2D5ED}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C280DF8C-0D7D-4B6B-A819-A72B4DF674AB}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{60FC37AB-5220-4795-822A-F429D74EB9F3}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
+    <hyperlink ref="B28" r:id="rId16" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
+    <hyperlink ref="B29" r:id="rId17" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
+    <hyperlink ref="B30" r:id="rId19" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
+    <hyperlink ref="B20" r:id="rId21" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
+    <hyperlink ref="B8" r:id="rId22" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{8E0DEC65-6BCB-4630-B111-D454130D7E82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId26"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId24"/>
 </worksheet>
 </file>
--- a/SP6T-COTS-System-Build-BOM.xlsx
+++ b/SP6T-COTS-System-Build-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEMSduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF586C-DB6B-4B59-8FB0-131B7DE46350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3547052D-C287-4B24-8CB1-0F8761E55AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>description</t>
   </si>
@@ -104,12 +104,6 @@
     <t>90272A106</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/98685A540/</t>
-  </si>
-  <si>
-    <t>98685A540</t>
-  </si>
-  <si>
     <t>100k axial resistor</t>
   </si>
   <si>
@@ -360,6 +354,15 @@
   </si>
   <si>
     <t>Momentary buttons</t>
+  </si>
+  <si>
+    <t>wood board</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Stainless-Phillips-Screws-Multipurpose-TPOHH/dp/B0CHRWGT8N</t>
+  </si>
+  <si>
+    <t>Ocooch Hardwoods</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E6" si="0">$C2*$D2</f>
+        <f t="shared" ref="E2:E5" si="0">$C2*$D2</f>
         <v>7.46</v>
       </c>
       <c r="F2" t="s">
@@ -900,34 +903,34 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="2">
-        <f>$C6*$D6</f>
-        <v>0.65600000000000003</v>
+        <f t="shared" ref="E6:E7" si="1">$C6*$D6</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>1.62</v>
@@ -936,476 +939,466 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <f>$C7*$D7</f>
+        <f t="shared" si="1"/>
         <v>6.48</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <f>$C8*$D8</f>
-        <v>14.9</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
-        <v>0.1</v>
+        <v>14.9</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2">
         <f>$C9*$D9</f>
-        <v>0.1</v>
+        <v>14.9</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <f>$C10*$D10</f>
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <f>$C11*$D11</f>
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <f>$C12*$D12</f>
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f>$C13*$D13</f>
-        <v>1.7399999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
-        <v>2.16</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2">
         <f>$C14*$D14</f>
-        <v>2.16</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2">
-        <v>16.899999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>$C15*$D15</f>
-        <v>16.899999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
-        <v>1.64</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2">
         <f>$C16*$D16</f>
-        <v>1.64</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f>$C17*$D17</f>
-        <v>7.5</v>
+        <v>1.64</v>
       </c>
       <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="6">
-        <v>1559</v>
-      </c>
       <c r="H17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1559</v>
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
-        <v>0.59899999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
         <f>$C18*$D18</f>
-        <v>0.59899999999999998</v>
+        <v>7.5</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1559</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1559</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2">
-        <v>0.79</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <f>$C19*$D19</f>
-        <v>7.11</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="2">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <f>$C20*$D20</f>
-        <v>1.98</v>
+        <v>7.11</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="2">
-        <v>0.09</v>
+        <v>0.99</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
         <f>$C21*$D21</f>
-        <v>0.27</v>
+        <v>1.98</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2">
         <f>$C22*$D22</f>
-        <v>0.56700000000000006</v>
+        <v>0.27</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
-        <v>0.47</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2">
         <f>$C23*$D23</f>
-        <v>1.88</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="2">
-        <v>5.98</v>
+        <v>0.47</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2">
         <f>$C24*$D24</f>
-        <v>5.98</v>
+        <v>1.88</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1413,22 +1406,22 @@
         <v>78</v>
       </c>
       <c r="C25" s="2">
-        <v>1.82</v>
+        <v>5.98</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2">
         <f>$C25*$D25</f>
-        <v>1.82</v>
+        <v>5.98</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2">
         <v>1.82</v>
@@ -1441,66 +1434,84 @@
         <v>1.82</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.82</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" s="2">
+        <f>$C27*$D27</f>
+        <v>1.82</v>
+      </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>67</v>
+      <c r="F31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="5">
         <f>SUM(E2:E37)</f>
-        <v>85.383999999999986</v>
+        <v>85.287999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -1510,27 +1521,26 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{BC51F43F-73C3-4542-B883-85C971BB0C5E}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6DDD143B-F9D0-4B29-A1DA-E8BD72E2D5ED}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{C280DF8C-0D7D-4B6B-A819-A72B4DF674AB}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{60FC37AB-5220-4795-822A-F429D74EB9F3}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
-    <hyperlink ref="B22" r:id="rId7" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
-    <hyperlink ref="B28" r:id="rId16" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
-    <hyperlink ref="B29" r:id="rId17" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
-    <hyperlink ref="B30" r:id="rId19" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
-    <hyperlink ref="B20" r:id="rId21" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
-    <hyperlink ref="B8" r:id="rId22" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{8E0DEC65-6BCB-4630-B111-D454130D7E82}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
+    <hyperlink ref="B29" r:id="rId15" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
+    <hyperlink ref="B30" r:id="rId16" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
+    <hyperlink ref="B9" r:id="rId21" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{8E0DEC65-6BCB-4630-B111-D454130D7E82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId24"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId23"/>
 </worksheet>
 </file>
--- a/SP6T-COTS-System-Build-BOM.xlsx
+++ b/SP6T-COTS-System-Build-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEMSduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3547052D-C287-4B24-8CB1-0F8761E55AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6136E-03B9-4EFB-99CF-F4BC01D0EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>description</t>
   </si>
@@ -356,13 +356,31 @@
     <t>Momentary buttons</t>
   </si>
   <si>
-    <t>wood board</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Stainless-Phillips-Screws-Multipurpose-TPOHH/dp/B0CHRWGT8N</t>
   </si>
   <si>
     <t>Ocooch Hardwoods</t>
+  </si>
+  <si>
+    <t>https://ocoochhardwoods.com/detail/?i=124wo</t>
+  </si>
+  <si>
+    <t>1/2" White oak board, 4" x 24"</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/PRT-12795/5993860</t>
+  </si>
+  <si>
+    <t>1568-1512-ND</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>PRT-12795</t>
+  </si>
+  <si>
+    <t>JUMPER WIRE M/M 6" 20PCS</t>
   </si>
 </sst>
 </file>
@@ -758,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9227DDD-8365-4864-A5FB-3571E7A7DE36}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,740 +825,787 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2">
-        <v>3.73</v>
+        <v>5.4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E5" si="0">$C2*$D2</f>
-        <v>7.46</v>
+        <f>$C2*$D2</f>
+        <v>5.4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>$C3*$D3</f>
+        <v>6.48</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>$C4*$D4</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16199999999999998</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E7" si="1">$C6*$D6</f>
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.62</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>6.48</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <f>$C8*$D8</f>
+        <v>0.56700000000000006</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2">
-        <v>14.9</v>
+        <v>0.47</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
         <f>$C9*$D9</f>
-        <v>14.9</v>
+        <v>1.88</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <f>$C10*$D10</f>
-        <v>0.1</v>
+        <v>0.16199999999999998</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
-        <v>0.05</v>
+        <v>14.9</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <f>$C11*$D11</f>
-        <v>0.45</v>
+        <v>14.9</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>0.1</v>
+        <v>3.73</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2">
         <f>$C12*$D12</f>
-        <v>0.2</v>
+        <v>7.46</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>0.51</v>
+        <v>1.2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <f>$C13*$D13</f>
-        <v>0.51</v>
+        <v>2.4</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <f>$C14*$D14</f>
-        <v>1.7399999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2">
-        <v>2.16</v>
+        <v>5.98</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>$C15*$D15</f>
-        <v>2.16</v>
+        <v>5.98</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2">
-        <v>16.899999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2">
         <f>$C16*$D16</f>
-        <v>16.899999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2">
         <f>$C17*$D17</f>
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>1.25</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <f>$C18*$D18</f>
-        <v>7.5</v>
+        <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1559</v>
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1559</v>
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>0.59899999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <f>$C19*$D19</f>
-        <v>0.59899999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <f>$C20*$D20</f>
-        <v>7.11</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>0.99</v>
+        <v>0.51</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <f>$C21*$D21</f>
-        <v>1.98</v>
+        <v>0.51</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
-        <v>0.09</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2">
         <f>$C22*$D22</f>
-        <v>0.27</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>2.1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <f>$C23*$D23</f>
-        <v>0.56700000000000006</v>
+        <v>2.1</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2">
-        <v>0.47</v>
+        <v>2.16</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <f>$C24*$D24</f>
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="2">
-        <v>5.98</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2">
         <f>$C25*$D25</f>
-        <v>5.98</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2">
         <f>$C26*$D26</f>
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="2">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
         <f>$C27*$D27</f>
-        <v>1.82</v>
+        <v>7.5</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1559</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1559</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.59899999999999998</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" s="2">
+        <f>$C28*$D28</f>
+        <v>0.59899999999999998</v>
+      </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.79</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <f>$C29*$D29</f>
+        <v>7.11</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.99</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
+      <c r="E30" s="2">
+        <f>$C30*$D30</f>
+        <v>1.98</v>
+      </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f>$C31*$D31</f>
+        <v>0.27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E38" s="5">
-        <f>SUM(E2:E37)</f>
-        <v>85.287999999999982</v>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="5">
+        <f>SUM(E12:E32)</f>
+        <v>62.838999999999992</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.mcmaster.com/93465A113/" xr:uid="{30614124-8274-416D-BF4B-C61FC2A88B31}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BC51F43F-73C3-4542-B883-85C971BB0C5E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6DDD143B-F9D0-4B29-A1DA-E8BD72E2D5ED}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{C280DF8C-0D7D-4B6B-A819-A72B4DF674AB}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
-    <hyperlink ref="B29" r:id="rId15" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
-    <hyperlink ref="B30" r:id="rId16" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
-    <hyperlink ref="B9" r:id="rId21" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{8E0DEC65-6BCB-4630-B111-D454130D7E82}"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://www.mcmaster.com/93465A113/" xr:uid="{30614124-8274-416D-BF4B-C61FC2A88B31}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{6DDD143B-F9D0-4B29-A1DA-E8BD72E2D5ED}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{C280DF8C-0D7D-4B6B-A819-A72B4DF674AB}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{F7810F7C-7E96-4FB0-A9FF-0188B7A539E4}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{A8CF3EA9-F882-4B3B-A679-5FBD485F406A}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{D5B974E7-FB3C-41EF-B23E-71D65BA331EB}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{2A361B31-C293-419F-8647-138083B24887}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{F324FB64-F311-432C-85C3-C4A9CD2C260B}"/>
+    <hyperlink ref="B27" r:id="rId9" xr:uid="{46634537-F8C5-4322-89F5-5617EAA2C0B1}"/>
+    <hyperlink ref="B22" r:id="rId10" xr:uid="{D192A5CF-2E2F-48EE-B818-75B25482C472}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{9B1C1D5D-2C03-47AA-BB33-8431974A2977}"/>
+    <hyperlink ref="B25" r:id="rId12" xr:uid="{EFBF539C-618E-43E0-A62F-575BF38DD6A9}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{F1A68759-4C17-495E-AF4C-35EBB710BB0C}"/>
+    <hyperlink ref="B6" r:id="rId14" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/arduino-bracket.STL" xr:uid="{15E103AF-EAB5-4FDF-A5EE-5BBEEE5FC290}"/>
+    <hyperlink ref="B7" r:id="rId15" display="https://github.com/lafefspietz/MEMSduino/blob/main/3dprint_files/front-panel-edge-bracket.STL" xr:uid="{8CE89076-BF96-48E9-8823-7820AD88138C}"/>
+    <hyperlink ref="B28" r:id="rId16" xr:uid="{884619D7-502D-401A-901D-2363033DC363}"/>
+    <hyperlink ref="B32" r:id="rId17" xr:uid="{3ECC4416-4EC7-4521-89D4-53BB9BC8F581}"/>
+    <hyperlink ref="B29" r:id="rId18" xr:uid="{F448C947-6DA4-41EF-9F1C-DF0DACBB4455}"/>
+    <hyperlink ref="B30" r:id="rId19" display="https://www.amazon.com/ZYAMY-Dupont-Connector-Multicolor-Breadboard/dp/B0789F2Y1T/" xr:uid="{874914B1-8AFA-4BDC-8AC4-C9395C0DB705}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{2C3ABC2D-CB2F-4186-90FB-491BEE516030}"/>
+    <hyperlink ref="B9" r:id="rId21" xr:uid="{8E0DEC65-6BCB-4630-B111-D454130D7E82}"/>
+    <hyperlink ref="B2" r:id="rId22" xr:uid="{7B560E24-64E6-4879-93DB-4D80FDE40F0B}"/>
+    <hyperlink ref="B12" r:id="rId23" xr:uid="{BC51F43F-73C3-4542-B883-85C971BB0C5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId23"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId24"/>
 </worksheet>
 </file>